--- a/EC/Train Runs and Enforcements 2016-07-15.xlsx
+++ b/EC/Train Runs and Enforcements 2016-07-15.xlsx
@@ -2492,6 +2492,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2522,99 +2527,13 @@
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_XINGS" xfId="1"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -2975,8 +2894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CM158"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3000,7 +2919,7 @@
     <col min="18" max="18" width="28.140625" customWidth="1"/>
     <col min="19" max="19" width="7.7109375" style="25" customWidth="1"/>
     <col min="20" max="20" width="12.42578125" customWidth="1"/>
-    <col min="21" max="21" width="4.140625" style="122" customWidth="1"/>
+    <col min="21" max="21" width="4.140625" style="112" customWidth="1"/>
     <col min="22" max="22" width="5.7109375" style="24" customWidth="1"/>
     <col min="23" max="23" width="3.85546875" style="24" customWidth="1"/>
     <col min="24" max="24" width="4.140625" style="98" customWidth="1"/>
@@ -3027,7 +2946,7 @@
       <c r="N1" s="56"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
-      <c r="U1" s="122"/>
+      <c r="U1" s="112"/>
       <c r="V1" s="24"/>
       <c r="W1" s="24"/>
       <c r="X1" s="98"/>
@@ -3047,20 +2966,20 @@
       <c r="F2" s="50"/>
       <c r="G2" s="56"/>
       <c r="H2" s="50"/>
-      <c r="I2" s="113">
+      <c r="I2" s="116">
         <f>Variables!A2</f>
         <v>42566</v>
       </c>
-      <c r="J2" s="114"/>
+      <c r="J2" s="117"/>
       <c r="K2" s="57"/>
       <c r="L2" s="57"/>
-      <c r="M2" s="115" t="s">
+      <c r="M2" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="116"/>
-      <c r="O2" s="117"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="120"/>
       <c r="P2" s="2"/>
-      <c r="U2" s="122"/>
+      <c r="U2" s="112"/>
       <c r="V2" s="24"/>
       <c r="W2" s="24"/>
       <c r="X2" s="98"/>
@@ -3080,10 +2999,10 @@
       <c r="F3" s="50"/>
       <c r="G3" s="56"/>
       <c r="H3" s="50"/>
-      <c r="I3" s="118" t="s">
+      <c r="I3" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="119"/>
+      <c r="J3" s="122"/>
       <c r="K3" s="58"/>
       <c r="L3" s="58"/>
       <c r="M3" s="59" t="s">
@@ -3096,7 +3015,7 @@
         <v>13</v>
       </c>
       <c r="P3" s="2"/>
-      <c r="U3" s="122"/>
+      <c r="U3" s="112"/>
       <c r="V3" s="24"/>
       <c r="W3" s="24"/>
       <c r="X3" s="98"/>
@@ -3135,7 +3054,7 @@
         <v>15</v>
       </c>
       <c r="P4" s="2"/>
-      <c r="U4" s="122"/>
+      <c r="U4" s="112"/>
       <c r="V4" s="24"/>
       <c r="W4" s="24"/>
       <c r="X4" s="98"/>
@@ -3177,7 +3096,7 @@
         <v>55.500000002793968</v>
       </c>
       <c r="P5" s="2"/>
-      <c r="U5" s="122"/>
+      <c r="U5" s="112"/>
       <c r="V5" s="24"/>
       <c r="W5" s="24"/>
       <c r="X5" s="98"/>
@@ -3219,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="2"/>
-      <c r="U6" s="122"/>
+      <c r="U6" s="112"/>
       <c r="V6" s="24"/>
       <c r="W6" s="24"/>
       <c r="X6" s="98"/>
@@ -3258,7 +3177,7 @@
         <v>15</v>
       </c>
       <c r="P7" s="2"/>
-      <c r="U7" s="122"/>
+      <c r="U7" s="112"/>
       <c r="V7" s="24"/>
       <c r="W7" s="24"/>
       <c r="X7" s="98"/>
@@ -3300,7 +3219,7 @@
         <v>55.500000002793968</v>
       </c>
       <c r="P8" s="2"/>
-      <c r="U8" s="122"/>
+      <c r="U8" s="112"/>
       <c r="V8" s="24"/>
       <c r="W8" s="24"/>
       <c r="X8" s="98"/>
@@ -3333,7 +3252,7 @@
       <c r="N9" s="56"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
-      <c r="U9" s="122"/>
+      <c r="U9" s="112"/>
       <c r="V9" s="24"/>
       <c r="W9" s="24"/>
       <c r="X9" s="98"/>
@@ -3361,7 +3280,7 @@
       <c r="N10" s="56"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
-      <c r="U10" s="122"/>
+      <c r="U10" s="112"/>
       <c r="V10" s="24"/>
       <c r="W10" s="24"/>
       <c r="X10" s="98"/>
@@ -3373,25 +3292,29 @@
       <c r="AD10" s="87"/>
     </row>
     <row r="11" spans="1:91" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="112" t="str">
+      <c r="A11" s="115" t="str">
         <f>"Eagle P3 System Performance - "&amp;TEXT(Variables!A2,"yyyy-mm-dd")</f>
         <v>Eagle P3 System Performance - 2016-07-15</v>
       </c>
-      <c r="B11" s="112"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="112"/>
-      <c r="I11" s="112"/>
-      <c r="J11" s="112"/>
-      <c r="K11" s="112"/>
-      <c r="L11" s="112"/>
-      <c r="M11" s="112"/>
-      <c r="N11" s="112"/>
-      <c r="O11" s="112"/>
-      <c r="P11" s="112"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="115"/>
+      <c r="G11" s="115"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="115"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="115"/>
+      <c r="L11" s="115"/>
+      <c r="M11" s="115"/>
+      <c r="N11" s="115"/>
+      <c r="O11" s="115"/>
+      <c r="P11" s="115"/>
+      <c r="S11" s="25">
+        <f>AVERAGE(S13:S158)</f>
+        <v>0.96985815602836878</v>
+      </c>
     </row>
     <row r="12" spans="1:91" s="5" customFormat="1" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
@@ -3454,7 +3377,7 @@
       <c r="T12" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="U12" s="123" t="s">
+      <c r="U12" s="113" t="s">
         <v>88</v>
       </c>
       <c r="V12" s="73" t="s">
@@ -3611,7 +3534,7 @@
         <f t="shared" ref="T13:T14" si="4">IF(ISEVEN(LEFT(A13,3)),"Southbound","NorthBound")</f>
         <v>Southbound</v>
       </c>
-      <c r="U13" s="124">
+      <c r="U13" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T13="NorthBound","&gt;=","&lt;=")&amp;Y13,Variables!$M$2:$M$19,IF(T13="NorthBound","&lt;=","&gt;=")&amp;Z13)</f>
         <v>12</v>
       </c>
@@ -3724,7 +3647,7 @@
         <f t="shared" si="4"/>
         <v>NorthBound</v>
       </c>
-      <c r="U14" s="124">
+      <c r="U14" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T14="NorthBound","&gt;=","&lt;=")&amp;Y14,Variables!$M$2:$M$19,IF(T14="NorthBound","&lt;=","&gt;=")&amp;Z14)</f>
         <v>12</v>
       </c>
@@ -3838,7 +3761,7 @@
         <f t="shared" ref="T15:T46" si="18">IF(ISEVEN(LEFT(A15,3)),"Southbound","NorthBound")</f>
         <v>Southbound</v>
       </c>
-      <c r="U15" s="124">
+      <c r="U15" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T15="NorthBound","&gt;=","&lt;=")&amp;Y15,Variables!$M$2:$M$19,IF(T15="NorthBound","&lt;=","&gt;=")&amp;Z15)</f>
         <v>12</v>
       </c>
@@ -3951,7 +3874,7 @@
         <f t="shared" si="18"/>
         <v>NorthBound</v>
       </c>
-      <c r="U16" s="124">
+      <c r="U16" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T16="NorthBound","&gt;=","&lt;=")&amp;Y16,Variables!$M$2:$M$19,IF(T16="NorthBound","&lt;=","&gt;=")&amp;Z16)</f>
         <v>12</v>
       </c>
@@ -4063,7 +3986,7 @@
         <f t="shared" si="18"/>
         <v>Southbound</v>
       </c>
-      <c r="U17" s="124">
+      <c r="U17" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T17="NorthBound","&gt;=","&lt;=")&amp;Y17,Variables!$M$2:$M$19,IF(T17="NorthBound","&lt;=","&gt;=")&amp;Z17)</f>
         <v>0</v>
       </c>
@@ -4175,7 +4098,7 @@
         <f t="shared" si="18"/>
         <v>NorthBound</v>
       </c>
-      <c r="U18" s="124">
+      <c r="U18" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T18="NorthBound","&gt;=","&lt;=")&amp;Y18,Variables!$M$2:$M$19,IF(T18="NorthBound","&lt;=","&gt;=")&amp;Z18)</f>
         <v>12</v>
       </c>
@@ -4287,7 +4210,7 @@
         <f t="shared" si="18"/>
         <v>Southbound</v>
       </c>
-      <c r="U19" s="124">
+      <c r="U19" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T19="NorthBound","&gt;=","&lt;=")&amp;Y19,Variables!$M$2:$M$19,IF(T19="NorthBound","&lt;=","&gt;=")&amp;Z19)</f>
         <v>12</v>
       </c>
@@ -4399,7 +4322,7 @@
         <f t="shared" si="18"/>
         <v>NorthBound</v>
       </c>
-      <c r="U20" s="124">
+      <c r="U20" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T20="NorthBound","&gt;=","&lt;=")&amp;Y20,Variables!$M$2:$M$19,IF(T20="NorthBound","&lt;=","&gt;=")&amp;Z20)</f>
         <v>12</v>
       </c>
@@ -4511,7 +4434,7 @@
         <f t="shared" si="18"/>
         <v>Southbound</v>
       </c>
-      <c r="U21" s="124">
+      <c r="U21" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T21="NorthBound","&gt;=","&lt;=")&amp;Y21,Variables!$M$2:$M$19,IF(T21="NorthBound","&lt;=","&gt;=")&amp;Z21)</f>
         <v>12</v>
       </c>
@@ -4623,7 +4546,7 @@
         <f t="shared" si="18"/>
         <v>NorthBound</v>
       </c>
-      <c r="U22" s="124">
+      <c r="U22" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T22="NorthBound","&gt;=","&lt;=")&amp;Y22,Variables!$M$2:$M$19,IF(T22="NorthBound","&lt;=","&gt;=")&amp;Z22)</f>
         <v>12</v>
       </c>
@@ -4735,7 +4658,7 @@
         <f t="shared" si="18"/>
         <v>Southbound</v>
       </c>
-      <c r="U23" s="124">
+      <c r="U23" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T23="NorthBound","&gt;=","&lt;=")&amp;Y23,Variables!$M$2:$M$19,IF(T23="NorthBound","&lt;=","&gt;=")&amp;Z23)</f>
         <v>12</v>
       </c>
@@ -4847,7 +4770,7 @@
         <f t="shared" si="18"/>
         <v>NorthBound</v>
       </c>
-      <c r="U24" s="124">
+      <c r="U24" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T24="NorthBound","&gt;=","&lt;=")&amp;Y24,Variables!$M$2:$M$19,IF(T24="NorthBound","&lt;=","&gt;=")&amp;Z24)</f>
         <v>12</v>
       </c>
@@ -4959,7 +4882,7 @@
         <f t="shared" si="18"/>
         <v>Southbound</v>
       </c>
-      <c r="U25" s="124">
+      <c r="U25" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T25="NorthBound","&gt;=","&lt;=")&amp;Y25,Variables!$M$2:$M$19,IF(T25="NorthBound","&lt;=","&gt;=")&amp;Z25)</f>
         <v>12</v>
       </c>
@@ -5073,7 +4996,7 @@
         <f t="shared" si="18"/>
         <v>NorthBound</v>
       </c>
-      <c r="U26" s="124">
+      <c r="U26" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T26="NorthBound","&gt;=","&lt;=")&amp;Y26,Variables!$M$2:$M$19,IF(T26="NorthBound","&lt;=","&gt;=")&amp;Z26)</f>
         <v>12</v>
       </c>
@@ -5185,7 +5108,7 @@
         <f t="shared" si="18"/>
         <v>Southbound</v>
       </c>
-      <c r="U27" s="124">
+      <c r="U27" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T27="NorthBound","&gt;=","&lt;=")&amp;Y27,Variables!$M$2:$M$19,IF(T27="NorthBound","&lt;=","&gt;=")&amp;Z27)</f>
         <v>12</v>
       </c>
@@ -5297,7 +5220,7 @@
         <f t="shared" si="18"/>
         <v>NorthBound</v>
       </c>
-      <c r="U28" s="124">
+      <c r="U28" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T28="NorthBound","&gt;=","&lt;=")&amp;Y28,Variables!$M$2:$M$19,IF(T28="NorthBound","&lt;=","&gt;=")&amp;Z28)</f>
         <v>12</v>
       </c>
@@ -5409,7 +5332,7 @@
         <f t="shared" si="18"/>
         <v>Southbound</v>
       </c>
-      <c r="U29" s="124">
+      <c r="U29" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T29="NorthBound","&gt;=","&lt;=")&amp;Y29,Variables!$M$2:$M$19,IF(T29="NorthBound","&lt;=","&gt;=")&amp;Z29)</f>
         <v>12</v>
       </c>
@@ -5521,7 +5444,7 @@
         <f t="shared" si="18"/>
         <v>NorthBound</v>
       </c>
-      <c r="U30" s="124">
+      <c r="U30" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T30="NorthBound","&gt;=","&lt;=")&amp;Y30,Variables!$M$2:$M$19,IF(T30="NorthBound","&lt;=","&gt;=")&amp;Z30)</f>
         <v>12</v>
       </c>
@@ -5633,7 +5556,7 @@
         <f t="shared" si="18"/>
         <v>Southbound</v>
       </c>
-      <c r="U31" s="124">
+      <c r="U31" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T31="NorthBound","&gt;=","&lt;=")&amp;Y31,Variables!$M$2:$M$19,IF(T31="NorthBound","&lt;=","&gt;=")&amp;Z31)</f>
         <v>12</v>
       </c>
@@ -5745,7 +5668,7 @@
         <f t="shared" si="18"/>
         <v>NorthBound</v>
       </c>
-      <c r="U32" s="124">
+      <c r="U32" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T32="NorthBound","&gt;=","&lt;=")&amp;Y32,Variables!$M$2:$M$19,IF(T32="NorthBound","&lt;=","&gt;=")&amp;Z32)</f>
         <v>12</v>
       </c>
@@ -5857,7 +5780,7 @@
         <f t="shared" si="18"/>
         <v>Southbound</v>
       </c>
-      <c r="U33" s="124">
+      <c r="U33" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T33="NorthBound","&gt;=","&lt;=")&amp;Y33,Variables!$M$2:$M$19,IF(T33="NorthBound","&lt;=","&gt;=")&amp;Z33)</f>
         <v>12</v>
       </c>
@@ -5969,7 +5892,7 @@
         <f t="shared" si="18"/>
         <v>NorthBound</v>
       </c>
-      <c r="U34" s="124">
+      <c r="U34" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T34="NorthBound","&gt;=","&lt;=")&amp;Y34,Variables!$M$2:$M$19,IF(T34="NorthBound","&lt;=","&gt;=")&amp;Z34)</f>
         <v>12</v>
       </c>
@@ -6081,7 +6004,7 @@
         <f t="shared" si="18"/>
         <v>Southbound</v>
       </c>
-      <c r="U35" s="124">
+      <c r="U35" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T35="NorthBound","&gt;=","&lt;=")&amp;Y35,Variables!$M$2:$M$19,IF(T35="NorthBound","&lt;=","&gt;=")&amp;Z35)</f>
         <v>12</v>
       </c>
@@ -6193,7 +6116,7 @@
         <f t="shared" si="18"/>
         <v>NorthBound</v>
       </c>
-      <c r="U36" s="124">
+      <c r="U36" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T36="NorthBound","&gt;=","&lt;=")&amp;Y36,Variables!$M$2:$M$19,IF(T36="NorthBound","&lt;=","&gt;=")&amp;Z36)</f>
         <v>12</v>
       </c>
@@ -6305,7 +6228,7 @@
         <f t="shared" si="18"/>
         <v>Southbound</v>
       </c>
-      <c r="U37" s="124">
+      <c r="U37" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T37="NorthBound","&gt;=","&lt;=")&amp;Y37,Variables!$M$2:$M$19,IF(T37="NorthBound","&lt;=","&gt;=")&amp;Z37)</f>
         <v>12</v>
       </c>
@@ -6417,7 +6340,7 @@
         <f t="shared" si="18"/>
         <v>NorthBound</v>
       </c>
-      <c r="U38" s="124">
+      <c r="U38" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T38="NorthBound","&gt;=","&lt;=")&amp;Y38,Variables!$M$2:$M$19,IF(T38="NorthBound","&lt;=","&gt;=")&amp;Z38)</f>
         <v>12</v>
       </c>
@@ -6529,7 +6452,7 @@
         <f t="shared" si="18"/>
         <v>Southbound</v>
       </c>
-      <c r="U39" s="124">
+      <c r="U39" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T39="NorthBound","&gt;=","&lt;=")&amp;Y39,Variables!$M$2:$M$19,IF(T39="NorthBound","&lt;=","&gt;=")&amp;Z39)</f>
         <v>12</v>
       </c>
@@ -6641,7 +6564,7 @@
         <f t="shared" si="18"/>
         <v>NorthBound</v>
       </c>
-      <c r="U40" s="124">
+      <c r="U40" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T40="NorthBound","&gt;=","&lt;=")&amp;Y40,Variables!$M$2:$M$19,IF(T40="NorthBound","&lt;=","&gt;=")&amp;Z40)</f>
         <v>12</v>
       </c>
@@ -6753,7 +6676,7 @@
         <f t="shared" si="18"/>
         <v>Southbound</v>
       </c>
-      <c r="U41" s="124">
+      <c r="U41" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T41="NorthBound","&gt;=","&lt;=")&amp;Y41,Variables!$M$2:$M$19,IF(T41="NorthBound","&lt;=","&gt;=")&amp;Z41)</f>
         <v>12</v>
       </c>
@@ -6865,7 +6788,7 @@
         <f t="shared" si="18"/>
         <v>NorthBound</v>
       </c>
-      <c r="U42" s="124">
+      <c r="U42" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T42="NorthBound","&gt;=","&lt;=")&amp;Y42,Variables!$M$2:$M$19,IF(T42="NorthBound","&lt;=","&gt;=")&amp;Z42)</f>
         <v>12</v>
       </c>
@@ -6977,7 +6900,7 @@
         <f t="shared" si="18"/>
         <v>Southbound</v>
       </c>
-      <c r="U43" s="124">
+      <c r="U43" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T43="NorthBound","&gt;=","&lt;=")&amp;Y43,Variables!$M$2:$M$19,IF(T43="NorthBound","&lt;=","&gt;=")&amp;Z43)</f>
         <v>12</v>
       </c>
@@ -7089,7 +7012,7 @@
         <f t="shared" si="18"/>
         <v>NorthBound</v>
       </c>
-      <c r="U44" s="124">
+      <c r="U44" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T44="NorthBound","&gt;=","&lt;=")&amp;Y44,Variables!$M$2:$M$19,IF(T44="NorthBound","&lt;=","&gt;=")&amp;Z44)</f>
         <v>12</v>
       </c>
@@ -7201,7 +7124,7 @@
         <f t="shared" si="18"/>
         <v>Southbound</v>
       </c>
-      <c r="U45" s="124">
+      <c r="U45" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T45="NorthBound","&gt;=","&lt;=")&amp;Y45,Variables!$M$2:$M$19,IF(T45="NorthBound","&lt;=","&gt;=")&amp;Z45)</f>
         <v>12</v>
       </c>
@@ -7313,7 +7236,7 @@
         <f t="shared" si="18"/>
         <v>NorthBound</v>
       </c>
-      <c r="U46" s="124">
+      <c r="U46" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T46="NorthBound","&gt;=","&lt;=")&amp;Y46,Variables!$M$2:$M$19,IF(T46="NorthBound","&lt;=","&gt;=")&amp;Z46)</f>
         <v>12</v>
       </c>
@@ -7425,7 +7348,7 @@
         <f t="shared" ref="T47:T79" si="34">IF(ISEVEN(LEFT(A47,3)),"Southbound","NorthBound")</f>
         <v>Southbound</v>
       </c>
-      <c r="U47" s="124">
+      <c r="U47" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T47="NorthBound","&gt;=","&lt;=")&amp;Y47,Variables!$M$2:$M$19,IF(T47="NorthBound","&lt;=","&gt;=")&amp;Z47)</f>
         <v>12</v>
       </c>
@@ -7537,7 +7460,7 @@
         <f t="shared" si="34"/>
         <v>NorthBound</v>
       </c>
-      <c r="U48" s="124">
+      <c r="U48" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T48="NorthBound","&gt;=","&lt;=")&amp;Y48,Variables!$M$2:$M$19,IF(T48="NorthBound","&lt;=","&gt;=")&amp;Z48)</f>
         <v>12</v>
       </c>
@@ -7649,7 +7572,7 @@
         <f t="shared" si="34"/>
         <v>Southbound</v>
       </c>
-      <c r="U49" s="124">
+      <c r="U49" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T49="NorthBound","&gt;=","&lt;=")&amp;Y49,Variables!$M$2:$M$19,IF(T49="NorthBound","&lt;=","&gt;=")&amp;Z49)</f>
         <v>12</v>
       </c>
@@ -7761,7 +7684,7 @@
         <f t="shared" si="34"/>
         <v>NorthBound</v>
       </c>
-      <c r="U50" s="124">
+      <c r="U50" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T50="NorthBound","&gt;=","&lt;=")&amp;Y50,Variables!$M$2:$M$19,IF(T50="NorthBound","&lt;=","&gt;=")&amp;Z50)</f>
         <v>12</v>
       </c>
@@ -7873,7 +7796,7 @@
         <f t="shared" si="34"/>
         <v>Southbound</v>
       </c>
-      <c r="U51" s="124">
+      <c r="U51" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T51="NorthBound","&gt;=","&lt;=")&amp;Y51,Variables!$M$2:$M$19,IF(T51="NorthBound","&lt;=","&gt;=")&amp;Z51)</f>
         <v>12</v>
       </c>
@@ -7985,7 +7908,7 @@
         <f t="shared" si="34"/>
         <v>NorthBound</v>
       </c>
-      <c r="U52" s="124">
+      <c r="U52" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T52="NorthBound","&gt;=","&lt;=")&amp;Y52,Variables!$M$2:$M$19,IF(T52="NorthBound","&lt;=","&gt;=")&amp;Z52)</f>
         <v>12</v>
       </c>
@@ -8097,7 +8020,7 @@
         <f t="shared" si="34"/>
         <v>Southbound</v>
       </c>
-      <c r="U53" s="124">
+      <c r="U53" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T53="NorthBound","&gt;=","&lt;=")&amp;Y53,Variables!$M$2:$M$19,IF(T53="NorthBound","&lt;=","&gt;=")&amp;Z53)</f>
         <v>12</v>
       </c>
@@ -8209,7 +8132,7 @@
         <f t="shared" si="34"/>
         <v>NorthBound</v>
       </c>
-      <c r="U54" s="124">
+      <c r="U54" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T54="NorthBound","&gt;=","&lt;=")&amp;Y54,Variables!$M$2:$M$19,IF(T54="NorthBound","&lt;=","&gt;=")&amp;Z54)</f>
         <v>12</v>
       </c>
@@ -8321,7 +8244,7 @@
         <f t="shared" si="34"/>
         <v>Southbound</v>
       </c>
-      <c r="U55" s="124">
+      <c r="U55" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T55="NorthBound","&gt;=","&lt;=")&amp;Y55,Variables!$M$2:$M$19,IF(T55="NorthBound","&lt;=","&gt;=")&amp;Z55)</f>
         <v>12</v>
       </c>
@@ -8433,7 +8356,7 @@
         <f t="shared" si="34"/>
         <v>NorthBound</v>
       </c>
-      <c r="U56" s="124">
+      <c r="U56" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T56="NorthBound","&gt;=","&lt;=")&amp;Y56,Variables!$M$2:$M$19,IF(T56="NorthBound","&lt;=","&gt;=")&amp;Z56)</f>
         <v>12</v>
       </c>
@@ -8545,7 +8468,7 @@
         <f t="shared" si="34"/>
         <v>Southbound</v>
       </c>
-      <c r="U57" s="124">
+      <c r="U57" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T57="NorthBound","&gt;=","&lt;=")&amp;Y57,Variables!$M$2:$M$19,IF(T57="NorthBound","&lt;=","&gt;=")&amp;Z57)</f>
         <v>12</v>
       </c>
@@ -8657,7 +8580,7 @@
         <f t="shared" si="34"/>
         <v>NorthBound</v>
       </c>
-      <c r="U58" s="124">
+      <c r="U58" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T58="NorthBound","&gt;=","&lt;=")&amp;Y58,Variables!$M$2:$M$19,IF(T58="NorthBound","&lt;=","&gt;=")&amp;Z58)</f>
         <v>12</v>
       </c>
@@ -8769,7 +8692,7 @@
         <f t="shared" si="34"/>
         <v>Southbound</v>
       </c>
-      <c r="U59" s="124">
+      <c r="U59" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T59="NorthBound","&gt;=","&lt;=")&amp;Y59,Variables!$M$2:$M$19,IF(T59="NorthBound","&lt;=","&gt;=")&amp;Z59)</f>
         <v>12</v>
       </c>
@@ -8881,7 +8804,7 @@
         <f t="shared" si="34"/>
         <v>NorthBound</v>
       </c>
-      <c r="U60" s="124">
+      <c r="U60" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T60="NorthBound","&gt;=","&lt;=")&amp;Y60,Variables!$M$2:$M$19,IF(T60="NorthBound","&lt;=","&gt;=")&amp;Z60)</f>
         <v>12</v>
       </c>
@@ -8993,7 +8916,7 @@
         <f t="shared" si="34"/>
         <v>Southbound</v>
       </c>
-      <c r="U61" s="124">
+      <c r="U61" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T61="NorthBound","&gt;=","&lt;=")&amp;Y61,Variables!$M$2:$M$19,IF(T61="NorthBound","&lt;=","&gt;=")&amp;Z61)</f>
         <v>12</v>
       </c>
@@ -9105,7 +9028,7 @@
         <f t="shared" si="34"/>
         <v>NorthBound</v>
       </c>
-      <c r="U62" s="124">
+      <c r="U62" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T62="NorthBound","&gt;=","&lt;=")&amp;Y62,Variables!$M$2:$M$19,IF(T62="NorthBound","&lt;=","&gt;=")&amp;Z62)</f>
         <v>12</v>
       </c>
@@ -9217,7 +9140,7 @@
         <f t="shared" si="34"/>
         <v>Southbound</v>
       </c>
-      <c r="U63" s="124">
+      <c r="U63" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T63="NorthBound","&gt;=","&lt;=")&amp;Y63,Variables!$M$2:$M$19,IF(T63="NorthBound","&lt;=","&gt;=")&amp;Z63)</f>
         <v>12</v>
       </c>
@@ -9329,7 +9252,7 @@
         <f t="shared" si="34"/>
         <v>NorthBound</v>
       </c>
-      <c r="U64" s="124">
+      <c r="U64" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T64="NorthBound","&gt;=","&lt;=")&amp;Y64,Variables!$M$2:$M$19,IF(T64="NorthBound","&lt;=","&gt;=")&amp;Z64)</f>
         <v>12</v>
       </c>
@@ -9441,7 +9364,7 @@
         <f t="shared" si="34"/>
         <v>Southbound</v>
       </c>
-      <c r="U65" s="124">
+      <c r="U65" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T65="NorthBound","&gt;=","&lt;=")&amp;Y65,Variables!$M$2:$M$19,IF(T65="NorthBound","&lt;=","&gt;=")&amp;Z65)</f>
         <v>12</v>
       </c>
@@ -9553,7 +9476,7 @@
         <f t="shared" si="34"/>
         <v>NorthBound</v>
       </c>
-      <c r="U66" s="124">
+      <c r="U66" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T66="NorthBound","&gt;=","&lt;=")&amp;Y66,Variables!$M$2:$M$19,IF(T66="NorthBound","&lt;=","&gt;=")&amp;Z66)</f>
         <v>12</v>
       </c>
@@ -9665,7 +9588,7 @@
         <f t="shared" si="34"/>
         <v>Southbound</v>
       </c>
-      <c r="U67" s="124">
+      <c r="U67" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T67="NorthBound","&gt;=","&lt;=")&amp;Y67,Variables!$M$2:$M$19,IF(T67="NorthBound","&lt;=","&gt;=")&amp;Z67)</f>
         <v>12</v>
       </c>
@@ -9777,7 +9700,7 @@
         <f t="shared" si="34"/>
         <v>NorthBound</v>
       </c>
-      <c r="U68" s="124">
+      <c r="U68" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T68="NorthBound","&gt;=","&lt;=")&amp;Y68,Variables!$M$2:$M$19,IF(T68="NorthBound","&lt;=","&gt;=")&amp;Z68)</f>
         <v>12</v>
       </c>
@@ -9889,7 +9812,7 @@
         <f t="shared" si="34"/>
         <v>Southbound</v>
       </c>
-      <c r="U69" s="124">
+      <c r="U69" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T69="NorthBound","&gt;=","&lt;=")&amp;Y69,Variables!$M$2:$M$19,IF(T69="NorthBound","&lt;=","&gt;=")&amp;Z69)</f>
         <v>12</v>
       </c>
@@ -10001,7 +9924,7 @@
         <f t="shared" ref="T70" si="46">IF(ISEVEN(LEFT(A70,3)),"Southbound","NorthBound")</f>
         <v>NorthBound</v>
       </c>
-      <c r="U70" s="124">
+      <c r="U70" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T70="NorthBound","&gt;=","&lt;=")&amp;Y70,Variables!$M$2:$M$19,IF(T70="NorthBound","&lt;=","&gt;=")&amp;Z70)</f>
         <v>12</v>
       </c>
@@ -10112,7 +10035,7 @@
         <f t="shared" si="34"/>
         <v>Southbound</v>
       </c>
-      <c r="U71" s="124">
+      <c r="U71" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T71="NorthBound","&gt;=","&lt;=")&amp;Y71,Variables!$M$2:$M$19,IF(T71="NorthBound","&lt;=","&gt;=")&amp;Z71)</f>
         <v>12</v>
       </c>
@@ -10224,7 +10147,7 @@
         <f t="shared" si="34"/>
         <v>NorthBound</v>
       </c>
-      <c r="U72" s="124">
+      <c r="U72" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T72="NorthBound","&gt;=","&lt;=")&amp;Y72,Variables!$M$2:$M$19,IF(T72="NorthBound","&lt;=","&gt;=")&amp;Z72)</f>
         <v>12</v>
       </c>
@@ -10336,7 +10259,7 @@
         <f t="shared" si="34"/>
         <v>Southbound</v>
       </c>
-      <c r="U73" s="124">
+      <c r="U73" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T73="NorthBound","&gt;=","&lt;=")&amp;Y73,Variables!$M$2:$M$19,IF(T73="NorthBound","&lt;=","&gt;=")&amp;Z73)</f>
         <v>12</v>
       </c>
@@ -10448,7 +10371,7 @@
         <f t="shared" si="34"/>
         <v>NorthBound</v>
       </c>
-      <c r="U74" s="124">
+      <c r="U74" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T74="NorthBound","&gt;=","&lt;=")&amp;Y74,Variables!$M$2:$M$19,IF(T74="NorthBound","&lt;=","&gt;=")&amp;Z74)</f>
         <v>12</v>
       </c>
@@ -10560,7 +10483,7 @@
         <f t="shared" si="34"/>
         <v>Southbound</v>
       </c>
-      <c r="U75" s="124">
+      <c r="U75" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T75="NorthBound","&gt;=","&lt;=")&amp;Y75,Variables!$M$2:$M$19,IF(T75="NorthBound","&lt;=","&gt;=")&amp;Z75)</f>
         <v>12</v>
       </c>
@@ -10672,7 +10595,7 @@
         <f t="shared" si="34"/>
         <v>NorthBound</v>
       </c>
-      <c r="U76" s="124">
+      <c r="U76" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T76="NorthBound","&gt;=","&lt;=")&amp;Y76,Variables!$M$2:$M$19,IF(T76="NorthBound","&lt;=","&gt;=")&amp;Z76)</f>
         <v>12</v>
       </c>
@@ -10784,7 +10707,7 @@
         <f t="shared" si="34"/>
         <v>Southbound</v>
       </c>
-      <c r="U77" s="124">
+      <c r="U77" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T77="NorthBound","&gt;=","&lt;=")&amp;Y77,Variables!$M$2:$M$19,IF(T77="NorthBound","&lt;=","&gt;=")&amp;Z77)</f>
         <v>12</v>
       </c>
@@ -10896,7 +10819,7 @@
         <f t="shared" si="34"/>
         <v>NorthBound</v>
       </c>
-      <c r="U78" s="124">
+      <c r="U78" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T78="NorthBound","&gt;=","&lt;=")&amp;Y78,Variables!$M$2:$M$19,IF(T78="NorthBound","&lt;=","&gt;=")&amp;Z78)</f>
         <v>12</v>
       </c>
@@ -11008,7 +10931,7 @@
         <f t="shared" si="34"/>
         <v>Southbound</v>
       </c>
-      <c r="U79" s="124">
+      <c r="U79" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T79="NorthBound","&gt;=","&lt;=")&amp;Y79,Variables!$M$2:$M$19,IF(T79="NorthBound","&lt;=","&gt;=")&amp;Z79)</f>
         <v>12</v>
       </c>
@@ -11120,7 +11043,7 @@
         <f t="shared" ref="T80:T111" si="58">IF(ISEVEN(LEFT(A80,3)),"Southbound","NorthBound")</f>
         <v>NorthBound</v>
       </c>
-      <c r="U80" s="124">
+      <c r="U80" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T80="NorthBound","&gt;=","&lt;=")&amp;Y80,Variables!$M$2:$M$19,IF(T80="NorthBound","&lt;=","&gt;=")&amp;Z80)</f>
         <v>12</v>
       </c>
@@ -11233,7 +11156,7 @@
         <f t="shared" si="58"/>
         <v>Southbound</v>
       </c>
-      <c r="U81" s="124">
+      <c r="U81" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T81="NorthBound","&gt;=","&lt;=")&amp;Y81,Variables!$M$2:$M$19,IF(T81="NorthBound","&lt;=","&gt;=")&amp;Z81)</f>
         <v>12</v>
       </c>
@@ -11345,7 +11268,7 @@
         <f t="shared" si="58"/>
         <v>NorthBound</v>
       </c>
-      <c r="U82" s="124">
+      <c r="U82" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T82="NorthBound","&gt;=","&lt;=")&amp;Y82,Variables!$M$2:$M$19,IF(T82="NorthBound","&lt;=","&gt;=")&amp;Z82)</f>
         <v>12</v>
       </c>
@@ -11457,7 +11380,7 @@
         <f t="shared" si="58"/>
         <v>Southbound</v>
       </c>
-      <c r="U83" s="124">
+      <c r="U83" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T83="NorthBound","&gt;=","&lt;=")&amp;Y83,Variables!$M$2:$M$19,IF(T83="NorthBound","&lt;=","&gt;=")&amp;Z83)</f>
         <v>12</v>
       </c>
@@ -11569,7 +11492,7 @@
         <f t="shared" si="58"/>
         <v>NorthBound</v>
       </c>
-      <c r="U84" s="124">
+      <c r="U84" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T84="NorthBound","&gt;=","&lt;=")&amp;Y84,Variables!$M$2:$M$19,IF(T84="NorthBound","&lt;=","&gt;=")&amp;Z84)</f>
         <v>12</v>
       </c>
@@ -11681,7 +11604,7 @@
         <f t="shared" si="58"/>
         <v>Southbound</v>
       </c>
-      <c r="U85" s="124">
+      <c r="U85" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T85="NorthBound","&gt;=","&lt;=")&amp;Y85,Variables!$M$2:$M$19,IF(T85="NorthBound","&lt;=","&gt;=")&amp;Z85)</f>
         <v>12</v>
       </c>
@@ -11793,7 +11716,7 @@
         <f t="shared" si="58"/>
         <v>NorthBound</v>
       </c>
-      <c r="U86" s="124">
+      <c r="U86" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T86="NorthBound","&gt;=","&lt;=")&amp;Y86,Variables!$M$2:$M$19,IF(T86="NorthBound","&lt;=","&gt;=")&amp;Z86)</f>
         <v>12</v>
       </c>
@@ -11905,7 +11828,7 @@
         <f t="shared" si="58"/>
         <v>Southbound</v>
       </c>
-      <c r="U87" s="124">
+      <c r="U87" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T87="NorthBound","&gt;=","&lt;=")&amp;Y87,Variables!$M$2:$M$19,IF(T87="NorthBound","&lt;=","&gt;=")&amp;Z87)</f>
         <v>12</v>
       </c>
@@ -12017,7 +11940,7 @@
         <f t="shared" si="58"/>
         <v>NorthBound</v>
       </c>
-      <c r="U88" s="124">
+      <c r="U88" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T88="NorthBound","&gt;=","&lt;=")&amp;Y88,Variables!$M$2:$M$19,IF(T88="NorthBound","&lt;=","&gt;=")&amp;Z88)</f>
         <v>12</v>
       </c>
@@ -12129,7 +12052,7 @@
         <f t="shared" si="58"/>
         <v>Southbound</v>
       </c>
-      <c r="U89" s="124">
+      <c r="U89" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T89="NorthBound","&gt;=","&lt;=")&amp;Y89,Variables!$M$2:$M$19,IF(T89="NorthBound","&lt;=","&gt;=")&amp;Z89)</f>
         <v>12</v>
       </c>
@@ -12241,7 +12164,7 @@
         <f t="shared" si="58"/>
         <v>NorthBound</v>
       </c>
-      <c r="U90" s="124">
+      <c r="U90" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T90="NorthBound","&gt;=","&lt;=")&amp;Y90,Variables!$M$2:$M$19,IF(T90="NorthBound","&lt;=","&gt;=")&amp;Z90)</f>
         <v>12</v>
       </c>
@@ -12353,7 +12276,7 @@
         <f t="shared" si="58"/>
         <v>NorthBound</v>
       </c>
-      <c r="U91" s="124">
+      <c r="U91" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T91="NorthBound","&gt;=","&lt;=")&amp;Y91,Variables!$M$2:$M$19,IF(T91="NorthBound","&lt;=","&gt;=")&amp;Z91)</f>
         <v>12</v>
       </c>
@@ -12465,7 +12388,7 @@
         <f t="shared" si="58"/>
         <v>Southbound</v>
       </c>
-      <c r="U92" s="124">
+      <c r="U92" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T92="NorthBound","&gt;=","&lt;=")&amp;Y92,Variables!$M$2:$M$19,IF(T92="NorthBound","&lt;=","&gt;=")&amp;Z92)</f>
         <v>12</v>
       </c>
@@ -12577,7 +12500,7 @@
         <f t="shared" si="58"/>
         <v>NorthBound</v>
       </c>
-      <c r="U93" s="124">
+      <c r="U93" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T93="NorthBound","&gt;=","&lt;=")&amp;Y93,Variables!$M$2:$M$19,IF(T93="NorthBound","&lt;=","&gt;=")&amp;Z93)</f>
         <v>12</v>
       </c>
@@ -12689,7 +12612,7 @@
         <f t="shared" si="58"/>
         <v>Southbound</v>
       </c>
-      <c r="U94" s="124">
+      <c r="U94" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T94="NorthBound","&gt;=","&lt;=")&amp;Y94,Variables!$M$2:$M$19,IF(T94="NorthBound","&lt;=","&gt;=")&amp;Z94)</f>
         <v>12</v>
       </c>
@@ -12801,7 +12724,7 @@
         <f t="shared" si="58"/>
         <v>NorthBound</v>
       </c>
-      <c r="U95" s="124">
+      <c r="U95" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T95="NorthBound","&gt;=","&lt;=")&amp;Y95,Variables!$M$2:$M$19,IF(T95="NorthBound","&lt;=","&gt;=")&amp;Z95)</f>
         <v>12</v>
       </c>
@@ -12913,7 +12836,7 @@
         <f t="shared" si="58"/>
         <v>Southbound</v>
       </c>
-      <c r="U96" s="124">
+      <c r="U96" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T96="NorthBound","&gt;=","&lt;=")&amp;Y96,Variables!$M$2:$M$19,IF(T96="NorthBound","&lt;=","&gt;=")&amp;Z96)</f>
         <v>12</v>
       </c>
@@ -13025,7 +12948,7 @@
         <f t="shared" si="58"/>
         <v>Southbound</v>
       </c>
-      <c r="U97" s="124">
+      <c r="U97" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T97="NorthBound","&gt;=","&lt;=")&amp;Y97,Variables!$M$2:$M$19,IF(T97="NorthBound","&lt;=","&gt;=")&amp;Z97)</f>
         <v>12</v>
       </c>
@@ -13137,7 +13060,7 @@
         <f t="shared" si="58"/>
         <v>Southbound</v>
       </c>
-      <c r="U98" s="124">
+      <c r="U98" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T98="NorthBound","&gt;=","&lt;=")&amp;Y98,Variables!$M$2:$M$19,IF(T98="NorthBound","&lt;=","&gt;=")&amp;Z98)</f>
         <v>12</v>
       </c>
@@ -13251,7 +13174,7 @@
         <f t="shared" si="58"/>
         <v>Southbound</v>
       </c>
-      <c r="U99" s="124">
+      <c r="U99" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T99="NorthBound","&gt;=","&lt;=")&amp;Y99,Variables!$M$2:$M$19,IF(T99="NorthBound","&lt;=","&gt;=")&amp;Z99)</f>
         <v>12</v>
       </c>
@@ -13357,7 +13280,7 @@
         <f t="shared" si="58"/>
         <v>Southbound</v>
       </c>
-      <c r="U100" s="124">
+      <c r="U100" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T100="NorthBound","&gt;=","&lt;=")&amp;Y100,Variables!$M$2:$M$19,IF(T100="NorthBound","&lt;=","&gt;=")&amp;Z100)</f>
         <v>0</v>
       </c>
@@ -13469,7 +13392,7 @@
         <f t="shared" si="58"/>
         <v>NorthBound</v>
       </c>
-      <c r="U101" s="124">
+      <c r="U101" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T101="NorthBound","&gt;=","&lt;=")&amp;Y101,Variables!$M$2:$M$19,IF(T101="NorthBound","&lt;=","&gt;=")&amp;Z101)</f>
         <v>12</v>
       </c>
@@ -13581,7 +13504,7 @@
         <f t="shared" si="58"/>
         <v>Southbound</v>
       </c>
-      <c r="U102" s="124">
+      <c r="U102" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T102="NorthBound","&gt;=","&lt;=")&amp;Y102,Variables!$M$2:$M$19,IF(T102="NorthBound","&lt;=","&gt;=")&amp;Z102)</f>
         <v>12</v>
       </c>
@@ -13693,7 +13616,7 @@
         <f t="shared" si="58"/>
         <v>NorthBound</v>
       </c>
-      <c r="U103" s="124">
+      <c r="U103" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T103="NorthBound","&gt;=","&lt;=")&amp;Y103,Variables!$M$2:$M$19,IF(T103="NorthBound","&lt;=","&gt;=")&amp;Z103)</f>
         <v>12</v>
       </c>
@@ -13805,7 +13728,7 @@
         <f t="shared" si="58"/>
         <v>Southbound</v>
       </c>
-      <c r="U104" s="124">
+      <c r="U104" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T104="NorthBound","&gt;=","&lt;=")&amp;Y104,Variables!$M$2:$M$19,IF(T104="NorthBound","&lt;=","&gt;=")&amp;Z104)</f>
         <v>12</v>
       </c>
@@ -13917,7 +13840,7 @@
         <f t="shared" si="58"/>
         <v>NorthBound</v>
       </c>
-      <c r="U105" s="124">
+      <c r="U105" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T105="NorthBound","&gt;=","&lt;=")&amp;Y105,Variables!$M$2:$M$19,IF(T105="NorthBound","&lt;=","&gt;=")&amp;Z105)</f>
         <v>12</v>
       </c>
@@ -14029,7 +13952,7 @@
         <f t="shared" si="58"/>
         <v>Southbound</v>
       </c>
-      <c r="U106" s="124">
+      <c r="U106" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T106="NorthBound","&gt;=","&lt;=")&amp;Y106,Variables!$M$2:$M$19,IF(T106="NorthBound","&lt;=","&gt;=")&amp;Z106)</f>
         <v>12</v>
       </c>
@@ -14141,7 +14064,7 @@
         <f t="shared" si="58"/>
         <v>NorthBound</v>
       </c>
-      <c r="U107" s="124">
+      <c r="U107" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T107="NorthBound","&gt;=","&lt;=")&amp;Y107,Variables!$M$2:$M$19,IF(T107="NorthBound","&lt;=","&gt;=")&amp;Z107)</f>
         <v>12</v>
       </c>
@@ -14253,7 +14176,7 @@
         <f t="shared" si="58"/>
         <v>Southbound</v>
       </c>
-      <c r="U108" s="124">
+      <c r="U108" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T108="NorthBound","&gt;=","&lt;=")&amp;Y108,Variables!$M$2:$M$19,IF(T108="NorthBound","&lt;=","&gt;=")&amp;Z108)</f>
         <v>12</v>
       </c>
@@ -14365,7 +14288,7 @@
         <f t="shared" si="58"/>
         <v>NorthBound</v>
       </c>
-      <c r="U109" s="124">
+      <c r="U109" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T109="NorthBound","&gt;=","&lt;=")&amp;Y109,Variables!$M$2:$M$19,IF(T109="NorthBound","&lt;=","&gt;=")&amp;Z109)</f>
         <v>12</v>
       </c>
@@ -14477,7 +14400,7 @@
         <f t="shared" si="58"/>
         <v>Southbound</v>
       </c>
-      <c r="U110" s="124">
+      <c r="U110" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T110="NorthBound","&gt;=","&lt;=")&amp;Y110,Variables!$M$2:$M$19,IF(T110="NorthBound","&lt;=","&gt;=")&amp;Z110)</f>
         <v>12</v>
       </c>
@@ -14589,7 +14512,7 @@
         <f t="shared" si="58"/>
         <v>NorthBound</v>
       </c>
-      <c r="U111" s="124">
+      <c r="U111" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T111="NorthBound","&gt;=","&lt;=")&amp;Y111,Variables!$M$2:$M$19,IF(T111="NorthBound","&lt;=","&gt;=")&amp;Z111)</f>
         <v>12</v>
       </c>
@@ -14701,7 +14624,7 @@
         <f t="shared" ref="T112:T143" si="74">IF(ISEVEN(LEFT(A112,3)),"Southbound","NorthBound")</f>
         <v>Southbound</v>
       </c>
-      <c r="U112" s="124">
+      <c r="U112" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T112="NorthBound","&gt;=","&lt;=")&amp;Y112,Variables!$M$2:$M$19,IF(T112="NorthBound","&lt;=","&gt;=")&amp;Z112)</f>
         <v>12</v>
       </c>
@@ -14813,7 +14736,7 @@
         <f t="shared" si="74"/>
         <v>NorthBound</v>
       </c>
-      <c r="U113" s="124">
+      <c r="U113" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T113="NorthBound","&gt;=","&lt;=")&amp;Y113,Variables!$M$2:$M$19,IF(T113="NorthBound","&lt;=","&gt;=")&amp;Z113)</f>
         <v>12</v>
       </c>
@@ -14925,7 +14848,7 @@
         <f t="shared" si="74"/>
         <v>Southbound</v>
       </c>
-      <c r="U114" s="124">
+      <c r="U114" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T114="NorthBound","&gt;=","&lt;=")&amp;Y114,Variables!$M$2:$M$19,IF(T114="NorthBound","&lt;=","&gt;=")&amp;Z114)</f>
         <v>12</v>
       </c>
@@ -15039,7 +14962,7 @@
         <f t="shared" si="74"/>
         <v>NorthBound</v>
       </c>
-      <c r="U115" s="124">
+      <c r="U115" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T115="NorthBound","&gt;=","&lt;=")&amp;Y115,Variables!$M$2:$M$19,IF(T115="NorthBound","&lt;=","&gt;=")&amp;Z115)</f>
         <v>0</v>
       </c>
@@ -15145,7 +15068,7 @@
         <f t="shared" si="74"/>
         <v>NorthBound</v>
       </c>
-      <c r="U116" s="124">
+      <c r="U116" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T116="NorthBound","&gt;=","&lt;=")&amp;Y116,Variables!$M$2:$M$19,IF(T116="NorthBound","&lt;=","&gt;=")&amp;Z116)</f>
         <v>9</v>
       </c>
@@ -15257,7 +15180,7 @@
         <f t="shared" si="74"/>
         <v>Southbound</v>
       </c>
-      <c r="U117" s="124">
+      <c r="U117" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T117="NorthBound","&gt;=","&lt;=")&amp;Y117,Variables!$M$2:$M$19,IF(T117="NorthBound","&lt;=","&gt;=")&amp;Z117)</f>
         <v>12</v>
       </c>
@@ -15369,7 +15292,7 @@
         <f t="shared" si="74"/>
         <v>NorthBound</v>
       </c>
-      <c r="U118" s="124">
+      <c r="U118" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T118="NorthBound","&gt;=","&lt;=")&amp;Y118,Variables!$M$2:$M$19,IF(T118="NorthBound","&lt;=","&gt;=")&amp;Z118)</f>
         <v>12</v>
       </c>
@@ -15483,7 +15406,7 @@
         <f t="shared" si="74"/>
         <v>Southbound</v>
       </c>
-      <c r="U119" s="124">
+      <c r="U119" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T119="NorthBound","&gt;=","&lt;=")&amp;Y119,Variables!$M$2:$M$19,IF(T119="NorthBound","&lt;=","&gt;=")&amp;Z119)</f>
         <v>4</v>
       </c>
@@ -15595,7 +15518,7 @@
         <f t="shared" si="74"/>
         <v>NorthBound</v>
       </c>
-      <c r="U120" s="124">
+      <c r="U120" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T120="NorthBound","&gt;=","&lt;=")&amp;Y120,Variables!$M$2:$M$19,IF(T120="NorthBound","&lt;=","&gt;=")&amp;Z120)</f>
         <v>12</v>
       </c>
@@ -15709,7 +15632,7 @@
         <f t="shared" si="74"/>
         <v>Southbound</v>
       </c>
-      <c r="U121" s="124">
+      <c r="U121" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T121="NorthBound","&gt;=","&lt;=")&amp;Y121,Variables!$M$2:$M$19,IF(T121="NorthBound","&lt;=","&gt;=")&amp;Z121)</f>
         <v>4</v>
       </c>
@@ -15815,7 +15738,7 @@
         <f t="shared" si="74"/>
         <v>Southbound</v>
       </c>
-      <c r="U122" s="124">
+      <c r="U122" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T122="NorthBound","&gt;=","&lt;=")&amp;Y122,Variables!$M$2:$M$19,IF(T122="NorthBound","&lt;=","&gt;=")&amp;Z122)</f>
         <v>3</v>
       </c>
@@ -15927,7 +15850,7 @@
         <f t="shared" si="74"/>
         <v>NorthBound</v>
       </c>
-      <c r="U123" s="124">
+      <c r="U123" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T123="NorthBound","&gt;=","&lt;=")&amp;Y123,Variables!$M$2:$M$19,IF(T123="NorthBound","&lt;=","&gt;=")&amp;Z123)</f>
         <v>12</v>
       </c>
@@ -16041,7 +15964,7 @@
         <f t="shared" si="74"/>
         <v>Southbound</v>
       </c>
-      <c r="U124" s="124">
+      <c r="U124" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T124="NorthBound","&gt;=","&lt;=")&amp;Y124,Variables!$M$2:$M$19,IF(T124="NorthBound","&lt;=","&gt;=")&amp;Z124)</f>
         <v>3</v>
       </c>
@@ -16147,7 +16070,7 @@
         <f t="shared" si="74"/>
         <v>Southbound</v>
       </c>
-      <c r="U125" s="124">
+      <c r="U125" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T125="NorthBound","&gt;=","&lt;=")&amp;Y125,Variables!$M$2:$M$19,IF(T125="NorthBound","&lt;=","&gt;=")&amp;Z125)</f>
         <v>3</v>
       </c>
@@ -16259,7 +16182,7 @@
         <f t="shared" si="74"/>
         <v>NorthBound</v>
       </c>
-      <c r="U126" s="124">
+      <c r="U126" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T126="NorthBound","&gt;=","&lt;=")&amp;Y126,Variables!$M$2:$M$19,IF(T126="NorthBound","&lt;=","&gt;=")&amp;Z126)</f>
         <v>12</v>
       </c>
@@ -16371,7 +16294,7 @@
         <f t="shared" si="74"/>
         <v>Southbound</v>
       </c>
-      <c r="U127" s="124">
+      <c r="U127" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T127="NorthBound","&gt;=","&lt;=")&amp;Y127,Variables!$M$2:$M$19,IF(T127="NorthBound","&lt;=","&gt;=")&amp;Z127)</f>
         <v>12</v>
       </c>
@@ -16483,7 +16406,7 @@
         <f t="shared" si="74"/>
         <v>NorthBound</v>
       </c>
-      <c r="U128" s="124">
+      <c r="U128" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T128="NorthBound","&gt;=","&lt;=")&amp;Y128,Variables!$M$2:$M$19,IF(T128="NorthBound","&lt;=","&gt;=")&amp;Z128)</f>
         <v>12</v>
       </c>
@@ -16597,7 +16520,7 @@
         <f t="shared" si="74"/>
         <v>Southbound</v>
       </c>
-      <c r="U129" s="124">
+      <c r="U129" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T129="NorthBound","&gt;=","&lt;=")&amp;Y129,Variables!$M$2:$M$19,IF(T129="NorthBound","&lt;=","&gt;=")&amp;Z129)</f>
         <v>4</v>
       </c>
@@ -16709,7 +16632,7 @@
         <f t="shared" si="74"/>
         <v>NorthBound</v>
       </c>
-      <c r="U130" s="124">
+      <c r="U130" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T130="NorthBound","&gt;=","&lt;=")&amp;Y130,Variables!$M$2:$M$19,IF(T130="NorthBound","&lt;=","&gt;=")&amp;Z130)</f>
         <v>12</v>
       </c>
@@ -16823,7 +16746,7 @@
         <f t="shared" si="74"/>
         <v>Southbound</v>
       </c>
-      <c r="U131" s="124">
+      <c r="U131" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T131="NorthBound","&gt;=","&lt;=")&amp;Y131,Variables!$M$2:$M$19,IF(T131="NorthBound","&lt;=","&gt;=")&amp;Z131)</f>
         <v>3</v>
       </c>
@@ -16935,7 +16858,7 @@
         <f t="shared" si="74"/>
         <v>NorthBound</v>
       </c>
-      <c r="U132" s="124">
+      <c r="U132" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T132="NorthBound","&gt;=","&lt;=")&amp;Y132,Variables!$M$2:$M$19,IF(T132="NorthBound","&lt;=","&gt;=")&amp;Z132)</f>
         <v>12</v>
       </c>
@@ -17047,7 +16970,7 @@
         <f t="shared" si="74"/>
         <v>Southbound</v>
       </c>
-      <c r="U133" s="124">
+      <c r="U133" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T133="NorthBound","&gt;=","&lt;=")&amp;Y133,Variables!$M$2:$M$19,IF(T133="NorthBound","&lt;=","&gt;=")&amp;Z133)</f>
         <v>12</v>
       </c>
@@ -17159,7 +17082,7 @@
         <f t="shared" si="74"/>
         <v>NorthBound</v>
       </c>
-      <c r="U134" s="124">
+      <c r="U134" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T134="NorthBound","&gt;=","&lt;=")&amp;Y134,Variables!$M$2:$M$19,IF(T134="NorthBound","&lt;=","&gt;=")&amp;Z134)</f>
         <v>12</v>
       </c>
@@ -17271,7 +17194,7 @@
         <f t="shared" si="74"/>
         <v>Southbound</v>
       </c>
-      <c r="U135" s="124">
+      <c r="U135" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T135="NorthBound","&gt;=","&lt;=")&amp;Y135,Variables!$M$2:$M$19,IF(T135="NorthBound","&lt;=","&gt;=")&amp;Z135)</f>
         <v>12</v>
       </c>
@@ -17383,7 +17306,7 @@
         <f t="shared" si="74"/>
         <v>NorthBound</v>
       </c>
-      <c r="U136" s="124">
+      <c r="U136" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T136="NorthBound","&gt;=","&lt;=")&amp;Y136,Variables!$M$2:$M$19,IF(T136="NorthBound","&lt;=","&gt;=")&amp;Z136)</f>
         <v>12</v>
       </c>
@@ -17497,7 +17420,7 @@
         <f t="shared" si="74"/>
         <v>Southbound</v>
       </c>
-      <c r="U137" s="124">
+      <c r="U137" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T137="NorthBound","&gt;=","&lt;=")&amp;Y137,Variables!$M$2:$M$19,IF(T137="NorthBound","&lt;=","&gt;=")&amp;Z137)</f>
         <v>12</v>
       </c>
@@ -17603,7 +17526,7 @@
         <f t="shared" si="74"/>
         <v>Southbound</v>
       </c>
-      <c r="U138" s="124">
+      <c r="U138" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T138="NorthBound","&gt;=","&lt;=")&amp;Y138,Variables!$M$2:$M$19,IF(T138="NorthBound","&lt;=","&gt;=")&amp;Z138)</f>
         <v>0</v>
       </c>
@@ -17715,7 +17638,7 @@
         <f t="shared" si="74"/>
         <v>NorthBound</v>
       </c>
-      <c r="U139" s="124">
+      <c r="U139" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T139="NorthBound","&gt;=","&lt;=")&amp;Y139,Variables!$M$2:$M$19,IF(T139="NorthBound","&lt;=","&gt;=")&amp;Z139)</f>
         <v>12</v>
       </c>
@@ -17827,7 +17750,7 @@
         <f t="shared" si="74"/>
         <v>Southbound</v>
       </c>
-      <c r="U140" s="124">
+      <c r="U140" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T140="NorthBound","&gt;=","&lt;=")&amp;Y140,Variables!$M$2:$M$19,IF(T140="NorthBound","&lt;=","&gt;=")&amp;Z140)</f>
         <v>12</v>
       </c>
@@ -17939,7 +17862,7 @@
         <f t="shared" si="74"/>
         <v>NorthBound</v>
       </c>
-      <c r="U141" s="124">
+      <c r="U141" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T141="NorthBound","&gt;=","&lt;=")&amp;Y141,Variables!$M$2:$M$19,IF(T141="NorthBound","&lt;=","&gt;=")&amp;Z141)</f>
         <v>12</v>
       </c>
@@ -18051,7 +17974,7 @@
         <f t="shared" si="74"/>
         <v>Southbound</v>
       </c>
-      <c r="U142" s="124">
+      <c r="U142" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T142="NorthBound","&gt;=","&lt;=")&amp;Y142,Variables!$M$2:$M$19,IF(T142="NorthBound","&lt;=","&gt;=")&amp;Z142)</f>
         <v>12</v>
       </c>
@@ -18163,7 +18086,7 @@
         <f t="shared" si="74"/>
         <v>NorthBound</v>
       </c>
-      <c r="U143" s="124">
+      <c r="U143" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T143="NorthBound","&gt;=","&lt;=")&amp;Y143,Variables!$M$2:$M$19,IF(T143="NorthBound","&lt;=","&gt;=")&amp;Z143)</f>
         <v>12</v>
       </c>
@@ -18275,7 +18198,7 @@
         <f t="shared" ref="T144:T158" si="87">IF(ISEVEN(LEFT(A144,3)),"Southbound","NorthBound")</f>
         <v>Southbound</v>
       </c>
-      <c r="U144" s="124">
+      <c r="U144" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T144="NorthBound","&gt;=","&lt;=")&amp;Y144,Variables!$M$2:$M$19,IF(T144="NorthBound","&lt;=","&gt;=")&amp;Z144)</f>
         <v>12</v>
       </c>
@@ -18300,7 +18223,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="AA144" s="97">
-        <f t="shared" ref="AA144:AA175" si="93">ABS(Z144-Y144)</f>
+        <f t="shared" ref="AA144:AA158" si="93">ABS(Z144-Y144)</f>
         <v>23.284399999999998</v>
       </c>
       <c r="AB144" s="94" t="e">
@@ -18388,7 +18311,7 @@
         <f t="shared" si="87"/>
         <v>NorthBound</v>
       </c>
-      <c r="U145" s="124">
+      <c r="U145" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T145="NorthBound","&gt;=","&lt;=")&amp;Y145,Variables!$M$2:$M$19,IF(T145="NorthBound","&lt;=","&gt;=")&amp;Z145)</f>
         <v>12</v>
       </c>
@@ -18500,7 +18423,7 @@
         <f t="shared" si="87"/>
         <v>Southbound</v>
       </c>
-      <c r="U146" s="124">
+      <c r="U146" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T146="NorthBound","&gt;=","&lt;=")&amp;Y146,Variables!$M$2:$M$19,IF(T146="NorthBound","&lt;=","&gt;=")&amp;Z146)</f>
         <v>12</v>
       </c>
@@ -18612,7 +18535,7 @@
         <f t="shared" si="87"/>
         <v>NorthBound</v>
       </c>
-      <c r="U147" s="124">
+      <c r="U147" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T147="NorthBound","&gt;=","&lt;=")&amp;Y147,Variables!$M$2:$M$19,IF(T147="NorthBound","&lt;=","&gt;=")&amp;Z147)</f>
         <v>12</v>
       </c>
@@ -18724,7 +18647,7 @@
         <f t="shared" si="87"/>
         <v>Southbound</v>
       </c>
-      <c r="U148" s="124">
+      <c r="U148" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T148="NorthBound","&gt;=","&lt;=")&amp;Y148,Variables!$M$2:$M$19,IF(T148="NorthBound","&lt;=","&gt;=")&amp;Z148)</f>
         <v>12</v>
       </c>
@@ -18836,7 +18759,7 @@
         <f t="shared" si="87"/>
         <v>NorthBound</v>
       </c>
-      <c r="U149" s="124">
+      <c r="U149" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T149="NorthBound","&gt;=","&lt;=")&amp;Y149,Variables!$M$2:$M$19,IF(T149="NorthBound","&lt;=","&gt;=")&amp;Z149)</f>
         <v>12</v>
       </c>
@@ -18948,7 +18871,7 @@
         <f t="shared" si="87"/>
         <v>Southbound</v>
       </c>
-      <c r="U150" s="124">
+      <c r="U150" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T150="NorthBound","&gt;=","&lt;=")&amp;Y150,Variables!$M$2:$M$19,IF(T150="NorthBound","&lt;=","&gt;=")&amp;Z150)</f>
         <v>12</v>
       </c>
@@ -19060,7 +18983,7 @@
         <f t="shared" si="87"/>
         <v>NorthBound</v>
       </c>
-      <c r="U151" s="124">
+      <c r="U151" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T151="NorthBound","&gt;=","&lt;=")&amp;Y151,Variables!$M$2:$M$19,IF(T151="NorthBound","&lt;=","&gt;=")&amp;Z151)</f>
         <v>12</v>
       </c>
@@ -19172,7 +19095,7 @@
         <f t="shared" si="87"/>
         <v>Southbound</v>
       </c>
-      <c r="U152" s="124">
+      <c r="U152" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T152="NorthBound","&gt;=","&lt;=")&amp;Y152,Variables!$M$2:$M$19,IF(T152="NorthBound","&lt;=","&gt;=")&amp;Z152)</f>
         <v>12</v>
       </c>
@@ -19284,7 +19207,7 @@
         <f t="shared" si="87"/>
         <v>NorthBound</v>
       </c>
-      <c r="U153" s="124">
+      <c r="U153" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T153="NorthBound","&gt;=","&lt;=")&amp;Y153,Variables!$M$2:$M$19,IF(T153="NorthBound","&lt;=","&gt;=")&amp;Z153)</f>
         <v>12</v>
       </c>
@@ -19396,7 +19319,7 @@
         <f t="shared" si="87"/>
         <v>Southbound</v>
       </c>
-      <c r="U154" s="124">
+      <c r="U154" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T154="NorthBound","&gt;=","&lt;=")&amp;Y154,Variables!$M$2:$M$19,IF(T154="NorthBound","&lt;=","&gt;=")&amp;Z154)</f>
         <v>12</v>
       </c>
@@ -19508,7 +19431,7 @@
         <f t="shared" si="87"/>
         <v>NorthBound</v>
       </c>
-      <c r="U155" s="124">
+      <c r="U155" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T155="NorthBound","&gt;=","&lt;=")&amp;Y155,Variables!$M$2:$M$19,IF(T155="NorthBound","&lt;=","&gt;=")&amp;Z155)</f>
         <v>12</v>
       </c>
@@ -19620,7 +19543,7 @@
         <f t="shared" si="87"/>
         <v>Southbound</v>
       </c>
-      <c r="U156" s="124">
+      <c r="U156" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T156="NorthBound","&gt;=","&lt;=")&amp;Y156,Variables!$M$2:$M$19,IF(T156="NorthBound","&lt;=","&gt;=")&amp;Z156)</f>
         <v>12</v>
       </c>
@@ -19733,7 +19656,7 @@
         <f t="shared" si="87"/>
         <v>NorthBound</v>
       </c>
-      <c r="U157" s="124">
+      <c r="U157" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T157="NorthBound","&gt;=","&lt;=")&amp;Y157,Variables!$M$2:$M$19,IF(T157="NorthBound","&lt;=","&gt;=")&amp;Z157)</f>
         <v>12</v>
       </c>
@@ -19847,7 +19770,7 @@
         <f t="shared" si="87"/>
         <v>Southbound</v>
       </c>
-      <c r="U158" s="124">
+      <c r="U158" s="114">
         <f>COUNTIFS(Variables!$M$2:$M$19,IF(T158="NorthBound","&gt;=","&lt;=")&amp;Y158,Variables!$M$2:$M$19,IF(T158="NorthBound","&lt;=","&gt;=")&amp;Z158)</f>
         <v>12</v>
       </c>
@@ -19913,27 +19836,27 @@
     <mergeCell ref="I3:J3"/>
   </mergeCells>
   <conditionalFormatting sqref="W11:W12 W13:X1048576">
-    <cfRule type="cellIs" dxfId="17" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="76" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X13:X1048576">
-    <cfRule type="cellIs" dxfId="16" priority="59" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="59" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X12:X1048576">
-    <cfRule type="cellIs" dxfId="15" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="56" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:S158">
-    <cfRule type="expression" dxfId="14" priority="52">
+    <cfRule type="expression" dxfId="5" priority="52">
       <formula>$O13&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:S158">
-    <cfRule type="expression" dxfId="13" priority="51">
+    <cfRule type="expression" dxfId="4" priority="51">
       <formula>$P13&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20048,22 +19971,22 @@
       <c r="T4" s="67"/>
     </row>
     <row r="5" spans="1:22" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="120" t="str">
+      <c r="A5" s="123" t="str">
         <f>"Eagle P3 Braking Events - "&amp;TEXT(Variables!$A$2,"YYYY-mm-dd")</f>
         <v>Eagle P3 Braking Events - 2016-07-15</v>
       </c>
-      <c r="B5" s="120"/>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="120"/>
-      <c r="K5" s="120"/>
-      <c r="L5" s="120"/>
-      <c r="M5" s="120"/>
+      <c r="B5" s="123"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="123"/>
+      <c r="I5" s="123"/>
+      <c r="J5" s="123"/>
+      <c r="K5" s="123"/>
+      <c r="L5" s="123"/>
+      <c r="M5" s="123"/>
       <c r="N5" s="13"/>
       <c r="Q5" s="30"/>
       <c r="T5" s="68"/>
@@ -23339,17 +23262,17 @@
     <mergeCell ref="A5:M5"/>
   </mergeCells>
   <conditionalFormatting sqref="M6:N6 P6 M7:M1048576">
-    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="14" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:N50">
-    <cfRule type="expression" dxfId="10" priority="7">
+    <cfRule type="expression" dxfId="1" priority="7">
       <formula>$M7="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M3">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23378,14 +23301,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="121" t="str">
+      <c r="A1" s="124" t="str">
         <f>"Trips that did not appear in PTC Data "&amp;TEXT(Variables!$A$2,"YYYY-mm-dd")</f>
         <v>Trips that did not appear in PTC Data 2016-07-15</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
     </row>
     <row r="2" spans="1:10" s="29" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
